--- a/production_doc/other.xlsx
+++ b/production_doc/other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhuJiatao\my_project\AtomHeat\production_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFC8068-810F-4124-BD09-F3CD785FCF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB0118F-620D-4ECE-9248-E295FF6957C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>4cm 散热风扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,22 @@
   </si>
   <si>
     <t>RP1570 1/2/5/10/20/230Ω高温陶瓷 MCH加热片可干烧1000度电热片-淘宝网 (taobao.com)</t>
+  </si>
+  <si>
+    <t>用于固定操作面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于固定加热片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于连接控制主板和隔热板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于连接加热板和隔热板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,7 +478,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,6 +543,9 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -538,6 +557,9 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -593,6 +615,9 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -603,6 +628,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
